--- a/src/main/webapp/WEB-INF/templates/IPO在审项目数据.xlsx
+++ b/src/main/webapp/WEB-INF/templates/IPO在审项目数据.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valueonline-PC\Desktop\需求6029\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valueonline-PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,36 +24,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>注册地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已受理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预先披露更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中止审查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已提交发审会讨论，暂缓表决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已通过发审会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,11 +54,96 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>终止审查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>已受理</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0099CC"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(已受理)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>已反馈</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0099CC"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(已问询)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>中止审查</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0099CC"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(中止)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>已通过发审会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0099CC"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(已通过上市委会议)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>终止审查</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0099CC"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(终止)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -82,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +171,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0099CC"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -144,23 +221,31 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0099CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -469,94 +554,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="31.375" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="11" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="28.375" customWidth="1"/>
+    <col min="8" max="8" width="33.125" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="12" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="2"/>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/WEB-INF/templates/IPO在审项目数据.xlsx
+++ b/src/main/webapp/WEB-INF/templates/IPO在审项目数据.xlsx
@@ -126,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提交注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>终止审查</t>
     </r>
@@ -144,6 +140,10 @@
       </rPr>
       <t>(终止)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册生效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,10 +229,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -557,7 +557,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -575,30 +575,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -617,8 +617,8 @@
       <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
+      <c r="I2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>3</v>

--- a/src/main/webapp/WEB-INF/templates/IPO在审项目数据.xlsx
+++ b/src/main/webapp/WEB-INF/templates/IPO在审项目数据.xlsx
@@ -110,23 +110,6 @@
   </si>
   <si>
     <r>
-      <t>已通过发审会</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0099CC"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(已通过上市委会议)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>终止审查</t>
     </r>
     <r>
@@ -144,6 +127,23 @@
   </si>
   <si>
     <t>注册生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>已通过发审会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0099CC"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(上市委会议通过)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,7 +557,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -592,7 +592,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" s="4"/>
     </row>
@@ -615,10 +615,10 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>3</v>

--- a/src/main/webapp/WEB-INF/templates/IPO在审项目数据.xlsx
+++ b/src/main/webapp/WEB-INF/templates/IPO在审项目数据.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valueonline-PC\Desktop\需求6029\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valueonline-PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,36 +24,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>注册地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已受理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预先披露更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中止审查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已提交发审会讨论，暂缓表决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已通过发审会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,11 +54,96 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>终止审查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>已受理</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0099CC"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(已受理)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>已反馈</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0099CC"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(已问询)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>中止审查</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0099CC"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(中止)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>终止审查</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0099CC"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(终止)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>已通过发审会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0099CC"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(上市委会议通过)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -82,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +171,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0099CC"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -144,23 +221,31 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0099CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -469,94 +554,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="31.375" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="11" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="28.375" customWidth="1"/>
+    <col min="8" max="8" width="33.125" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="12" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="2"/>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/WEB-INF/templates/IPO在审项目数据.xlsx
+++ b/src/main/webapp/WEB-INF/templates/IPO在审项目数据.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valueonline-PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valueonline-PC\Desktop\ipobug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>注册地</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,10 @@
       </rPr>
       <t>(上市委会议通过)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -570,11 +574,12 @@
     <col min="6" max="6" width="16.125" customWidth="1"/>
     <col min="7" max="7" width="28.375" customWidth="1"/>
     <col min="8" max="8" width="33.125" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="12" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="9.875" customWidth="1"/>
+    <col min="11" max="13" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -591,12 +596,13 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="1" t="s">
@@ -618,19 +624,22 @@
         <v>13</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -643,13 +652,14 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/WEB-INF/templates/IPO在审项目数据.xlsx
+++ b/src/main/webapp/WEB-INF/templates/IPO在审项目数据.xlsx
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>再审情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最近一周</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,6 +144,10 @@
   </si>
   <si>
     <t>提交注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在审情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -581,13 +581,13 @@
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -598,7 +598,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M1" s="4"/>
     </row>
@@ -606,37 +606,37 @@
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">

--- a/src/main/webapp/WEB-INF/templates/IPO在审项目数据.xlsx
+++ b/src/main/webapp/WEB-INF/templates/IPO在审项目数据.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valueonline-PC\Desktop\ipobug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91032\Desktop\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E10F5C6-DE34-4443-A7FD-3F3E4A30F1D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="2250"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>注册地</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,11 +151,23 @@
     <t>在审情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>辅导情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续辅导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅导完成(未受理)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -225,7 +238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -234,6 +247,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -557,89 +573,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
-    <col min="7" max="7" width="28.375" customWidth="1"/>
-    <col min="8" max="8" width="33.125" customWidth="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="9.875" customWidth="1"/>
-    <col min="11" max="13" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -653,13 +681,16 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
